--- a/src/selam.xlsx
+++ b/src/selam.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="16">
   <si>
     <t>TITLE</t>
   </si>
@@ -29,16 +29,37 @@
     <t>maxArray</t>
   </si>
   <si>
+    <t>notDistinctArray</t>
+  </si>
+  <si>
+    <t>flash ChangeArray</t>
+  </si>
+  <si>
+    <t>firstMinArray</t>
+  </si>
+  <si>
+    <t>firstMaxArray</t>
+  </si>
+  <si>
     <t>Insertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BinaryInsertion </t>
   </si>
   <si>
     <t>Merge</t>
   </si>
   <si>
-    <t>QuickFirts</t>
+    <t>QuickFirst</t>
   </si>
   <si>
     <t>QuickMedian</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Counting</t>
   </si>
 </sst>
 </file>
@@ -83,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BG10"/>
+  <dimension ref="A1:FD50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +114,10 @@
     <col min="3" max="3" width="12.0" customWidth="true"/>
     <col min="4" max="4" width="12.0" customWidth="true"/>
     <col min="5" max="5" width="12.0" customWidth="true"/>
+    <col min="6" max="6" width="12.0" customWidth="true"/>
+    <col min="7" max="7" width="12.0" customWidth="true"/>
+    <col min="8" max="8" width="12.0" customWidth="true"/>
+    <col min="9" max="9" width="12.0" customWidth="true"/>
     <col min="1" max="1" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -101,124 +126,424 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
       </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>15</v>
       </c>
       <c r="Z1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>14</v>
       </c>
       <c r="AF1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AH1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>12</v>
       </c>
       <c r="AL1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AM1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AN1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>10</v>
       </c>
       <c r="AR1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AS1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AT1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AU1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
       </c>
       <c r="AX1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>14</v>
       </c>
       <c r="BD1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BF1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>12</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>14</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>15</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>12</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>14</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>15</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>11</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>12</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>10</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -226,124 +551,424 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6508.0</v>
+        <v>155564.0</v>
       </c>
       <c r="C2" t="n">
-        <v>20352.0</v>
+        <v>129505.0</v>
       </c>
       <c r="D2" t="n">
-        <v>24032.0</v>
+        <v>37444.0</v>
       </c>
       <c r="E2" t="n">
-        <v>10370.0</v>
+        <v>25419.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57264.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91685.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2158.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18671.0</v>
+        <v>191825.0</v>
       </c>
       <c r="J2" t="n">
-        <v>17614.0</v>
+        <v>132055.0</v>
       </c>
       <c r="K2" t="n">
-        <v>7383.0</v>
+        <v>189410.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28209.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14185.0</v>
       </c>
       <c r="N2" t="n">
-        <v>4057.0</v>
+        <v>18259.0</v>
       </c>
       <c r="O2" t="n">
-        <v>54541.0</v>
+        <v>21959.0</v>
       </c>
       <c r="P2" t="n">
-        <v>37775.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>8599.0</v>
+        <v>137989.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18855.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>57965.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1253.0</v>
+        <v>41560.0</v>
       </c>
       <c r="U2" t="n">
-        <v>18473.0</v>
+        <v>19804.0</v>
       </c>
       <c r="V2" t="n">
-        <v>48383.0</v>
+        <v>20895.0</v>
       </c>
       <c r="W2" t="n">
-        <v>4720.0</v>
+        <v>32019.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12769.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1247.0</v>
+        <v>30925.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>34928.0</v>
+        <v>62554.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>62926.0</v>
+        <v>60935.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>5295.0</v>
+        <v>26620.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>30800.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>69129.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1617.0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>41961.0</v>
+        <v>21650.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>82857.0</v>
+        <v>47005.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>6737.0</v>
+        <v>81944.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>69475.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>37975.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>3309.0</v>
+        <v>37970.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>38764.0</v>
+        <v>48274.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>149447.0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10234.0</v>
+        <v>15900.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>70949.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>149640.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>3081.0</v>
+        <v>119429.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>49041.0</v>
+        <v>45610.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>154911.0</v>
+        <v>55745.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>9340.0</v>
+        <v>75360.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>17180.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>2662.0</v>
+        <v>46655.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>58959.0</v>
+        <v>85955.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>176317.0</v>
+        <v>80409.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>9829.0</v>
+        <v>34244.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>42090.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>47529.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>3379.0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>68427.0</v>
+        <v>30045.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>217518.0</v>
+        <v>57770.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>10065.0</v>
+        <v>103020.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>95709.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>37469.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>46245.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>53465.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>31025.0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>74050.0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>122009.0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>113614.0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>42589.0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>52099.0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>58299.0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>29204.0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>86469.0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>143370.0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>86029.0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>48664.0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>60189.0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>66615.0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>11580.0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>93200.0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>148430.0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>83079.0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>49299.0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>60150.0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>70280.0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>9695.0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>136440.0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>218384.0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>119305.0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>65849.0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>82724.0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>94305.0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>13095.0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>128524.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>194435.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>100405.0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>55964.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>72815.0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>78260.0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>9649.0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>144579.0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>219369.0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>103689.0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>59359.0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>74559.0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>82410.0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>10230.0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>180309.0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>264164.0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>117359.0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>74880.0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>88260.0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>97220.0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>11629.0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>202940.0</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>291155.0</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>124534.0</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>74624.0</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>91729.0</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>97875.0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>13004.0</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>218939.0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>305570.0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>136730.0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>81870.0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>99029.0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>109329.0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>12199.0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>245460.0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>340350.0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>136795.0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>86190.0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>103049.0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>118380.0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>13189.0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>272635.0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>377484.0</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>148539.0</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>93384.0</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>113819.0</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>123754.0</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>14730.0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>297365.0</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>413129.0</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>147579.0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>88304.0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>112925.0</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>123210.0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>15220.0</v>
       </c>
     </row>
     <row r="3">
@@ -351,124 +976,424 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3761.0</v>
+        <v>38170.0</v>
       </c>
       <c r="C3" t="n">
-        <v>9018.0</v>
+        <v>48650.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3888.0</v>
+        <v>20560.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4165.0</v>
+        <v>13519.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11089.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14860.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2452.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15937.0</v>
+        <v>106254.0</v>
       </c>
       <c r="J3" t="n">
-        <v>18679.0</v>
+        <v>277964.0</v>
       </c>
       <c r="K3" t="n">
-        <v>8033.0</v>
+        <v>55574.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27564.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12870.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2927.0</v>
+        <v>17520.0</v>
       </c>
       <c r="O3" t="n">
-        <v>13289.0</v>
+        <v>19455.0</v>
       </c>
       <c r="P3" t="n">
-        <v>25885.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>7150.0</v>
+        <v>159300.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>20934.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>65634.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1496.0</v>
+        <v>55260.0</v>
       </c>
       <c r="U3" t="n">
-        <v>22745.0</v>
+        <v>21150.0</v>
       </c>
       <c r="V3" t="n">
-        <v>55192.0</v>
+        <v>22779.0</v>
       </c>
       <c r="W3" t="n">
-        <v>10197.0</v>
+        <v>40744.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14050.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1324.0</v>
+        <v>31410.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>35679.0</v>
+        <v>74320.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>59206.0</v>
+        <v>61150.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>8840.0</v>
+        <v>28334.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>36865.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>78394.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2027.0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21042.0</v>
+        <v>14779.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>80377.0</v>
+        <v>38609.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>10749.0</v>
+        <v>67899.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>52309.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>35100.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>2005.0</v>
+        <v>35314.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>26096.0</v>
+        <v>40284.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>109479.0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>14609.0</v>
+        <v>14814.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>60095.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>109945.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>2374.0</v>
+        <v>107984.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>54888.0</v>
+        <v>42604.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>140630.0</v>
+        <v>48455.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>17722.0</v>
+        <v>60114.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>17475.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>2986.0</v>
+        <v>54365.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>65877.0</v>
+        <v>96860.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>194797.0</v>
+        <v>89259.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>22631.0</v>
+        <v>36424.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>43065.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>52300.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>3566.0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>66923.0</v>
+        <v>27310.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>213154.0</v>
+        <v>57499.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>24484.0</v>
+        <v>102085.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>92689.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>39595.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>47105.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>54940.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>30119.0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>69650.0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>118439.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>117959.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>46290.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>58344.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>59779.0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>41804.0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>85285.0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>134440.0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>80215.0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>47655.0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>56645.0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>65495.0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>10569.0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>95130.0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>149474.0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>83100.0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>50090.0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>59620.0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>66795.0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>11240.0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>150555.0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>226490.0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>121285.0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>67689.0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>80830.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>94285.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>14725.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>129540.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>190205.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>96010.0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>60285.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>71834.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>78369.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>10455.0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>152089.0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>218705.0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>110119.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>61650.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>90940.0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>88049.0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>11079.0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>174269.0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>269024.0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>122850.0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>71439.0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>88534.0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>109419.0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>12304.0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>193744.0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>275359.0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>111279.0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>68155.0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>88035.0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>92160.0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>10104.0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>216355.0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>307570.0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>134559.0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>81304.0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>100549.0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>108660.0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>13059.0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>240730.0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>328084.0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>128025.0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>77905.0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>94524.0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>107399.0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>11305.0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>263275.0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>371209.0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>151139.0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>89409.0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>135794.0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>120059.0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>13045.0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>279920.0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>381179.0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>144154.0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>92139.0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>118514.0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>126609.0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>12684.0</v>
       </c>
     </row>
     <row r="4">
@@ -476,124 +1401,424 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>639.0</v>
+        <v>1139.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7509.0</v>
+        <v>8875.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4480.0</v>
+        <v>18524.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3738.0</v>
+        <v>78479.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6090.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13085.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10215.0</v>
+        <v>4640.0</v>
       </c>
       <c r="J4" t="n">
-        <v>15291.0</v>
+        <v>720.0</v>
       </c>
       <c r="K4" t="n">
-        <v>4032.0</v>
+        <v>14080.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17729.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>50284.0</v>
       </c>
       <c r="N4" t="n">
-        <v>529.0</v>
+        <v>5990.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14553.0</v>
+        <v>14749.0</v>
       </c>
       <c r="P4" t="n">
-        <v>28263.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3576.0</v>
+        <v>1929.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24679.0</v>
       </c>
       <c r="T4" t="n">
-        <v>492.0</v>
+        <v>25850.0</v>
       </c>
       <c r="U4" t="n">
-        <v>13775.0</v>
+        <v>123255.0</v>
       </c>
       <c r="V4" t="n">
-        <v>38214.0</v>
+        <v>8685.0</v>
       </c>
       <c r="W4" t="n">
-        <v>3832.0</v>
+        <v>24155.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2719.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>715.0</v>
+        <v>1565.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>30771.0</v>
+        <v>14474.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>56027.0</v>
+        <v>112929.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4490.0</v>
+        <v>468559.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13300.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>449920.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>664.0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>20252.0</v>
+        <v>13075.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>78047.0</v>
+        <v>1504.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>5868.0</v>
+        <v>15020.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>38840.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>310359.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>975.0</v>
+        <v>11685.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>25768.0</v>
+        <v>42704.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>116593.0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7897.0</v>
+        <v>4359.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>22625.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>932.0</v>
+        <v>62090.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>52981.0</v>
+        <v>532379.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>143315.0</v>
+        <v>16429.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>8538.0</v>
+        <v>65004.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>5645.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>945.0</v>
+        <v>1294.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>58194.0</v>
+        <v>13520.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>173921.0</v>
+        <v>51660.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>9451.0</v>
+        <v>428939.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>9879.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>36344.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>1026.0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>67705.0</v>
+        <v>7259.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>213224.0</v>
+        <v>1250.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>10080.0</v>
+        <v>13850.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>53025.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>476529.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>10095.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>33064.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>6435.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>15744.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>78624.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>651874.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>12919.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>41524.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>10494.0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>18955.0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>46065.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>793700.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>13494.0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>48124.0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>5514.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1475.0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>17804.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>46689.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>804145.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>11270.0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>6784.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>2064.0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>23624.0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>54120.0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1161210.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>17839.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>59910.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>7645.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>23104.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>51104.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1301700.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>16435.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>63000.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>7849.0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>24360.0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>51205.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1313390.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>16384.0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>61854.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>8205.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>2180.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>29445.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>56639.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>1610274.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>18390.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>66105.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>9965.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>2179.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>28729.0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>59965.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>1762355.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>18400.0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>74564.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>10140.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>2544.0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>32784.0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>66715.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>2133064.0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>21855.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>80519.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>13979.0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>2464.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>32109.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>61169.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>2187164.0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>20435.0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>83144.0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>11750.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>2579.0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>33269.0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>177569.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>2431024.0</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>23014.0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>85024.0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>11955.0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>2664.0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>34360.0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>67985.0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>2734599.0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>23989.0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>89009.0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>13449.0</v>
       </c>
     </row>
     <row r="5">
@@ -601,131 +1826,2167 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1034.0</v>
+        <v>35144.0</v>
       </c>
       <c r="C5" t="n">
-        <v>8957.0</v>
+        <v>40665.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4438.0</v>
+        <v>17180.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6368.0</v>
+        <v>58600.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9030.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16159.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2344.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14713.0</v>
+        <v>4594.0</v>
       </c>
       <c r="J5" t="n">
-        <v>18202.0</v>
+        <v>14635.0</v>
       </c>
       <c r="K5" t="n">
-        <v>7200.0</v>
+        <v>27930.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16819.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36955.0</v>
       </c>
       <c r="N5" t="n">
-        <v>798.0</v>
+        <v>7569.0</v>
       </c>
       <c r="O5" t="n">
-        <v>11597.0</v>
+        <v>13325.0</v>
       </c>
       <c r="P5" t="n">
-        <v>23356.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4449.0</v>
+        <v>2095.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>29679.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>54319.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1025.0</v>
+        <v>26494.0</v>
       </c>
       <c r="U5" t="n">
-        <v>20743.0</v>
+        <v>80070.0</v>
       </c>
       <c r="V5" t="n">
-        <v>39885.0</v>
+        <v>10424.0</v>
       </c>
       <c r="W5" t="n">
-        <v>5960.0</v>
+        <v>23735.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2855.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200.0</v>
+        <v>51094.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>31348.0</v>
+        <v>92460.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>57462.0</v>
+        <v>48614.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>8542.0</v>
+        <v>274864.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14519.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>32965.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2086.0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>34621.0</v>
+        <v>4149.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>116215.0</v>
+        <v>76015.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>18045.0</v>
+        <v>88549.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>38769.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>196690.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1977.0</v>
+        <v>15820.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>39709.0</v>
+        <v>36044.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>119364.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>14871.0</v>
+        <v>4645.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>99089.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>115725.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>3405.0</v>
+        <v>46524.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>56499.0</v>
+        <v>258469.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>142115.0</v>
+        <v>18755.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>17373.0</v>
+        <v>40214.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>4795.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>3399.0</v>
+        <v>87085.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>69075.0</v>
+        <v>98040.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>212365.0</v>
+        <v>53560.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>24367.0</v>
+        <v>243840.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>12459.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>32035.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>3199.0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>65418.0</v>
+        <v>5975.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>213145.0</v>
+        <v>109499.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>22846.0</v>
+        <v>119905.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>60855.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>308855.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>14885.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>37085.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>8574.0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>147740.0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>159690.0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>79494.0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>417635.0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>19914.0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>46779.0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>9550.0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>166734.0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>185754.0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>44040.0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>481329.0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>20985.0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>50230.0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4630.0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>232409.0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>250819.0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>118504.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>611980.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>24379.0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>58530.0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>6125.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>209509.0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>224934.0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>43805.0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>615434.0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>22604.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>54315.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>6945.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>247805.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>265475.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>50885.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>732835.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>23454.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>62505.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>8895.0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>270594.0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>281729.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>48830.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>782185.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>23509.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>58125.0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>8689.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>327999.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>348010.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>56975.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>968029.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>32474.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>70489.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>10320.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>369080.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>389084.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>61979.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>1095249.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>28290.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>74955.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>10535.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>390035.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>405990.0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>58199.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>1161455.0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>30015.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>77154.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>10995.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>462319.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>489679.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>66965.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>1339735.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>33680.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>84290.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>11084.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>498180.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>504635.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>64630.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>1435265.0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>34154.0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>88795.0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>12599.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>557785.0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>577569.0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>72255.0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>1653640.0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>47145.0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>96620.0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>12535.0</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1450.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17185.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25444.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40705.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7170.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12864.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3355.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9294.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>16610.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>19455.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4175.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4694.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1134.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>18674.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>26149.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>39770.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8379.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6819.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2910.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1430.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>31335.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>70810.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>187754.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>99454.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3435.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3380.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1674.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>44880.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>38619.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>106329.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10629.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>3655.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>15105.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>46715.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>48609.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101944.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>8890.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2935.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>47130.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>56849.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>99780.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>8655.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2544.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>5284.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1355.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>55870.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>58059.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>115724.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>8584.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>3604.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>6834.0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1725.0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>80419.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>78130.0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>173760.0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>13584.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>3990.0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>7715.0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1699.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>87610.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>37925.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>187004.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>10359.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>3325.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>5395.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>2394.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>90289.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>41859.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>195924.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>10584.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>3105.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>5825.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1610.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>104884.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>39915.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>204674.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>11049.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>3315.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>5435.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1699.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>116325.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>42535.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>235279.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>12674.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>3479.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>5570.0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>135165.0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>44819.0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>278745.0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>13625.0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>4820.0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>6079.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2079.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>165469.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>54584.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>337589.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>15924.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>4555.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>8809.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>2134.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>185594.0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>55014.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>373495.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>15805.0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>4620.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>6779.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>2220.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>196569.0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>56559.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>400480.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>17105.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>4584.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>7014.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>2364.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>227175.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>58234.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>451220.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>16790.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>4979.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>8570.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>3130.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>247814.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>59950.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>501559.0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>17320.0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>5104.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>8109.0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>2725.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>284705.0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>67259.0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>561380.0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>20410.0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>5775.0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>9624.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18009.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30354.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13474.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11194.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14945.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14389.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>108589.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8684.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30944.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24630.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11139.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11625.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17995.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11990.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>17170.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>66154.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>40180.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19004.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21604.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>31240.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13695.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>93220.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>79340.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>61614.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>55639.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>31790.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>39775.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>19200.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>40279.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>73064.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>86644.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>33125.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>63640.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>62779.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>15445.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>65860.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>109039.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>109800.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>42364.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>48005.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>57999.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>37090.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>43090.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>77894.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>74905.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>31465.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>38754.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>44759.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>25260.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>74225.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>137320.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>125164.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>48665.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>55390.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>64510.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>34999.0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>79149.0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>125810.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>113505.0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>46819.0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>54334.0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>62139.0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>31690.0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>119499.0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>189835.0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>108594.0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>59515.0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>71359.0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>99050.0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>14294.0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>93015.0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>154879.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>83569.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>46345.0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>57805.0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>66765.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>9010.0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>113610.0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>171169.0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>87640.0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>49619.0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>63450.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>72229.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>11240.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>139079.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>202635.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>191990.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>65324.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>75380.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>78630.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>10495.0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>134759.0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>201669.0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>105240.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>59094.0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>79040.0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>83365.0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>9625.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>167745.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>248715.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>116905.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>69284.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>88170.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>93549.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>13729.0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>177784.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>258344.0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>119000.0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>70494.0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>88025.0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>91945.0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>12585.0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>215024.0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>307354.0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>133730.0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>78165.0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>100364.0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>111745.0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>12050.0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>243434.0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>335389.0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>136240.0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>83435.0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>101644.0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>114989.0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>13725.0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>253655.0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>344470.0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>134084.0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>81500.0</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>102840.0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>114115.0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>12394.0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>275310.0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>371390.0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>154845.0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>87640.0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>112505.0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>123014.0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>14924.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>118315.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34690.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25110.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6224.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13559.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43659.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>449760.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8829.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31584.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>24730.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11380.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18719.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12704.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>17900.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>57670.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>45965.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>19944.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>22674.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>31989.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>18615.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>72339.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>66340.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>73345.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>31295.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>32880.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>41765.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14539.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>44044.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>81954.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>70269.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>32985.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>38335.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>47160.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>13649.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>55920.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>104135.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>98899.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>36735.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>42154.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>51859.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>35095.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>49065.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>83815.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81270.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>33360.0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>40920.0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>46704.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>27309.0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>56844.0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>99019.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>98190.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>36920.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>45579.0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>51750.0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>37115.0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>87890.0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>142515.0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>224505.0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>48875.0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>60764.0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>68705.0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>31825.0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>84739.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>133604.0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>80064.0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>45070.0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>59349.0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>61990.0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>10949.0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>98880.0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>153845.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>86045.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>46710.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>59400.0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>63570.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>11205.0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>110885.0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>161765.0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>85685.0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>51319.0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>69679.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>75969.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>10744.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>130029.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>189820.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>105665.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>63590.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>72039.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>87314.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>10830.0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>150830.0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>217550.0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>105810.0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>60090.0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>76864.0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>85090.0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>10400.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>170890.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>251845.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>120685.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>68754.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>83934.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>90964.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>11695.0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>193924.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>278130.0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>231594.0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>79015.0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>93935.0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>104294.0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>11455.0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>218215.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>305749.0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>131624.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>74354.0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>99904.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>108154.0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>14150.0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>246045.0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>327120.0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>140690.0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>82225.0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>100690.0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>114785.0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>11334.0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>252909.0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>379349.0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>139959.0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>83915.0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>107119.0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>115134.0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>12234.0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>289589.0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>383259.0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>145905.0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>85085.0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>107259.0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>116444.0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>16545.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72964.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50610.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14940.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6495.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8484.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9449.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>192525.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11199.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>37490.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>30245.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12764.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13835.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>21619.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14059.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>18280.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>46865.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>51334.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>19054.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>22530.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>29964.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>591940.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>30960.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>56710.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>52939.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>26244.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>36464.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>40114.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16964.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>30485.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60140.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>48089.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>27224.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>32069.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>36969.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13479.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>60044.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>101294.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>102969.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>37885.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>43674.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>52649.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>35084.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>50299.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>87135.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>84654.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>34174.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>41990.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>46335.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>34325.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>52620.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>92104.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>98600.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>35030.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>42025.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>48354.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>38155.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>83959.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>135125.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>85265.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>46420.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>65509.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>68109.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>13110.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>78339.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>130610.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>75020.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>44315.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>54285.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>60320.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>9715.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>104609.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>173580.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>101685.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>56049.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>66879.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>75614.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>10785.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>106605.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>174340.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>86814.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>53744.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>74754.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>73410.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>10090.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>131470.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>191645.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>93085.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>55040.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>69639.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>80570.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>12085.0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>144025.0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>213755.0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>101885.0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>60590.0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>77255.0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>84280.0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>12005.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>159604.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>229825.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>106455.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>65140.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>80729.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>85769.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>10844.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>211755.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>306879.0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>138819.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>80440.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>97150.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>110585.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>15879.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>202095.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>281759.0</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>124270.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>73564.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>89210.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>104314.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>11319.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>228485.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>321335.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>126144.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>76285.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>96885.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>104894.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>13105.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>246924.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>346754.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>142130.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>81300.0</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>109204.0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>117624.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>12525.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>293429.0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>406300.0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>158729.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>96905.0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>121595.0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>129485.0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>15295.0</v>
+      </c>
+    </row>
     <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
